--- a/benchmarks/SRtrain.xlsx
+++ b/benchmarks/SRtrain.xlsx
@@ -2658,10 +2658,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ275"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M280" activeCellId="0" sqref="M280"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="N252" activeCellId="0" sqref="N252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2755,33 +2755,6 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>18</v>
       </c>
@@ -2808,33 +2781,6 @@
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>21</v>
       </c>
@@ -2861,33 +2807,6 @@
       <c r="F4" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>24</v>
       </c>
@@ -2914,33 +2833,6 @@
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>27</v>
       </c>
@@ -2967,33 +2859,6 @@
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" s="0" t="s">
         <v>30</v>
       </c>
@@ -3020,33 +2885,6 @@
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P7" s="0" t="s">
         <v>33</v>
       </c>
@@ -3073,33 +2911,6 @@
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" s="0" t="s">
         <v>36</v>
       </c>
@@ -3126,33 +2937,6 @@
       <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P9" s="0" t="s">
         <v>39</v>
       </c>
@@ -3179,33 +2963,6 @@
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" s="0" t="s">
         <v>42</v>
       </c>
@@ -3232,33 +2989,6 @@
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P11" s="0" t="s">
         <v>45</v>
       </c>
@@ -3285,33 +3015,6 @@
       <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" s="0" t="s">
         <v>48</v>
       </c>
@@ -3338,33 +3041,6 @@
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P13" s="0" t="s">
         <v>51</v>
       </c>
@@ -3391,33 +3067,6 @@
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P14" s="0" t="s">
         <v>54</v>
       </c>
@@ -3444,33 +3093,6 @@
       <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0.75</v>
-      </c>
       <c r="P15" s="0" t="s">
         <v>57</v>
       </c>
@@ -3497,33 +3119,6 @@
       <c r="F16" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P16" s="0" t="s">
         <v>60</v>
       </c>
@@ -3550,33 +3145,6 @@
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" s="0" t="s">
         <v>63</v>
       </c>
@@ -3603,33 +3171,6 @@
       <c r="F18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" s="0" t="s">
         <v>66</v>
       </c>
@@ -3656,33 +3197,6 @@
       <c r="F19" s="0" t="n">
         <v>0.857</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" s="0" t="s">
         <v>69</v>
       </c>
@@ -3709,33 +3223,6 @@
       <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P20" s="0" t="s">
         <v>72</v>
       </c>
@@ -3762,33 +3249,6 @@
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P21" s="0" t="s">
         <v>75</v>
       </c>
@@ -3815,33 +3275,6 @@
       <c r="F22" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P22" s="0" t="s">
         <v>78</v>
       </c>
@@ -3868,33 +3301,6 @@
       <c r="F23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" s="0" t="s">
         <v>81</v>
       </c>
@@ -3921,33 +3327,6 @@
       <c r="F24" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" s="0" t="s">
         <v>84</v>
       </c>
@@ -3974,33 +3353,6 @@
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P25" s="0" t="s">
         <v>87</v>
       </c>
@@ -4027,33 +3379,6 @@
       <c r="F26" s="0" t="n">
         <v>0.909</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>0.8</v>
-      </c>
       <c r="P26" s="0" t="s">
         <v>90</v>
       </c>
@@ -4080,33 +3405,6 @@
       <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P27" s="0" t="s">
         <v>93</v>
       </c>
@@ -4133,33 +3431,6 @@
       <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P28" s="0" t="s">
         <v>96</v>
       </c>
@@ -4186,33 +3457,6 @@
       <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" s="0" t="s">
         <v>99</v>
       </c>
@@ -4239,33 +3483,6 @@
       <c r="F30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" s="0" t="s">
         <v>102</v>
       </c>
@@ -4292,33 +3509,6 @@
       <c r="F31" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P31" s="0" t="s">
         <v>105</v>
       </c>
@@ -4345,33 +3535,6 @@
       <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P32" s="0" t="s">
         <v>108</v>
       </c>
@@ -4398,33 +3561,6 @@
       <c r="F33" s="0" t="n">
         <v>0.909</v>
       </c>
-      <c r="G33" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P33" s="0" t="s">
         <v>111</v>
       </c>
@@ -4451,33 +3587,6 @@
       <c r="F34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P34" s="0" t="s">
         <v>114</v>
       </c>
@@ -4504,33 +3613,6 @@
       <c r="F35" s="0" t="n">
         <v>0.923</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P35" s="0" t="s">
         <v>117</v>
       </c>
@@ -4557,33 +3639,6 @@
       <c r="F36" s="0" t="n">
         <v>0.857</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>0.857</v>
-      </c>
       <c r="P36" s="0" t="s">
         <v>120</v>
       </c>
@@ -4610,33 +3665,6 @@
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P37" s="0" t="s">
         <v>123</v>
       </c>
@@ -4663,33 +3691,6 @@
       <c r="F38" s="0" t="n">
         <v>0.857</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" s="0" t="s">
         <v>126</v>
       </c>
@@ -4716,33 +3717,6 @@
       <c r="F39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>0.75</v>
-      </c>
       <c r="P39" s="0" t="s">
         <v>129</v>
       </c>
@@ -4769,33 +3743,6 @@
       <c r="F40" s="0" t="n">
         <v>0.923</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P40" s="0" t="s">
         <v>132</v>
       </c>
@@ -4822,33 +3769,6 @@
       <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P41" s="0" t="s">
         <v>135</v>
       </c>
@@ -4875,33 +3795,6 @@
       <c r="F42" s="0" t="n">
         <v>0.933</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P42" s="0" t="s">
         <v>138</v>
       </c>
@@ -4928,33 +3821,6 @@
       <c r="F43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>0.833</v>
-      </c>
       <c r="P43" s="0" t="s">
         <v>141</v>
       </c>
@@ -4981,33 +3847,6 @@
       <c r="F44" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>0.75</v>
-      </c>
       <c r="P44" s="0" t="s">
         <v>144</v>
       </c>
@@ -5034,33 +3873,6 @@
       <c r="F45" s="0" t="n">
         <v>0.615</v>
       </c>
-      <c r="G45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P45" s="0" t="s">
         <v>147</v>
       </c>
@@ -5087,33 +3899,6 @@
       <c r="F46" s="0" t="n">
         <v>0.923</v>
       </c>
-      <c r="G46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P46" s="0" t="s">
         <v>150</v>
       </c>
@@ -5140,33 +3925,6 @@
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G47" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P47" s="0" t="s">
         <v>153</v>
       </c>
@@ -5193,33 +3951,6 @@
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P48" s="0" t="s">
         <v>156</v>
       </c>
@@ -5246,33 +3977,6 @@
       <c r="F49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P49" s="0" t="s">
         <v>159</v>
       </c>
@@ -5299,33 +4003,6 @@
       <c r="F50" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P50" s="0" t="s">
         <v>162</v>
       </c>
@@ -5352,33 +4029,6 @@
       <c r="F51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P51" s="0" t="s">
         <v>165</v>
       </c>
@@ -5405,33 +4055,6 @@
       <c r="F52" s="0" t="n">
         <v>0.909</v>
       </c>
-      <c r="G52" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P52" s="0" t="s">
         <v>168</v>
       </c>
@@ -5458,33 +4081,6 @@
       <c r="F53" s="0" t="n">
         <v>0.769</v>
       </c>
-      <c r="G53" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <v>0.769</v>
-      </c>
       <c r="P53" s="0" t="s">
         <v>171</v>
       </c>
@@ -5511,33 +4107,6 @@
       <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P54" s="0" t="s">
         <v>174</v>
       </c>
@@ -5564,33 +4133,6 @@
       <c r="F55" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P55" s="0" t="s">
         <v>177</v>
       </c>
@@ -5617,33 +4159,6 @@
       <c r="F56" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P56" s="0" t="s">
         <v>180</v>
       </c>
@@ -5670,33 +4185,6 @@
       <c r="F57" s="0" t="n">
         <v>0.571</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="L57" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="M57" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N57" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O57" s="0" t="n">
-        <v>0.571</v>
-      </c>
       <c r="P57" s="0" t="s">
         <v>183</v>
       </c>
@@ -5723,33 +4211,6 @@
       <c r="F58" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P58" s="0" t="s">
         <v>186</v>
       </c>
@@ -5776,33 +4237,6 @@
       <c r="F59" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P59" s="0" t="s">
         <v>189</v>
       </c>
@@ -5829,33 +4263,6 @@
       <c r="F60" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P60" s="0" t="s">
         <v>192</v>
       </c>
@@ -5882,33 +4289,6 @@
       <c r="F61" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P61" s="0" t="s">
         <v>195</v>
       </c>
@@ -5935,33 +4315,6 @@
       <c r="F62" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P62" s="0" t="s">
         <v>198</v>
       </c>
@@ -5988,33 +4341,6 @@
       <c r="F63" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="G63" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="K63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P63" s="0" t="s">
         <v>201</v>
       </c>
@@ -6041,33 +4367,6 @@
       <c r="F64" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P64" s="0" t="s">
         <v>204</v>
       </c>
@@ -6094,33 +4393,6 @@
       <c r="F65" s="0" t="n">
         <v>0.947</v>
       </c>
-      <c r="G65" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="H65" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="J65" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="K65" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="L65" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="M65" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N65" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="O65" s="0" t="n">
-        <v>0.947</v>
-      </c>
       <c r="P65" s="0" t="s">
         <v>207</v>
       </c>
@@ -6147,33 +4419,6 @@
       <c r="F66" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G66" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L66" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P66" s="0" t="s">
         <v>210</v>
       </c>
@@ -6200,33 +4445,6 @@
       <c r="F67" s="0" t="n">
         <v>0.842</v>
       </c>
-      <c r="G67" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="H67" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="J67" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="K67" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="L67" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="M67" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N67" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="O67" s="0" t="n">
-        <v>0.842</v>
-      </c>
       <c r="P67" s="0" t="s">
         <v>213</v>
       </c>
@@ -6253,33 +4471,6 @@
       <c r="F68" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G68" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H68" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="K68" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L68" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M68" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N68" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="O68" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P68" s="0" t="s">
         <v>207</v>
       </c>
@@ -6306,33 +4497,6 @@
       <c r="F69" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N69" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O69" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P69" s="0" t="s">
         <v>218</v>
       </c>
@@ -6359,33 +4523,6 @@
       <c r="F70" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O70" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P70" s="0" t="s">
         <v>221</v>
       </c>
@@ -6412,33 +4549,6 @@
       <c r="F71" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G71" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L71" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="M71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" s="0" t="n">
-        <v>0.923</v>
-      </c>
       <c r="P71" s="0" t="s">
         <v>224</v>
       </c>
@@ -6465,33 +4575,6 @@
       <c r="F72" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G72" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="I72" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L72" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O72" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P72" s="0" t="s">
         <v>227</v>
       </c>
@@ -6518,33 +4601,6 @@
       <c r="F73" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O73" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P73" s="0" t="s">
         <v>230</v>
       </c>
@@ -6571,33 +4627,6 @@
       <c r="F74" s="0" t="n">
         <v>0.769</v>
       </c>
-      <c r="G74" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O74" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P74" s="0" t="s">
         <v>233</v>
       </c>
@@ -6624,33 +4653,6 @@
       <c r="F75" s="0" t="n">
         <v>0.333</v>
       </c>
-      <c r="G75" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J75" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K75" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="L75" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M75" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N75" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="O75" s="0" t="n">
-        <v>0.75</v>
-      </c>
       <c r="P75" s="0" t="s">
         <v>236</v>
       </c>
@@ -6677,33 +4679,6 @@
       <c r="F76" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="G76" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O76" s="0" t="n">
-        <v>0.75</v>
-      </c>
       <c r="P76" s="0" t="s">
         <v>239</v>
       </c>
@@ -6730,33 +4705,6 @@
       <c r="F77" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="G77" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N77" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O77" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P77" s="0" t="s">
         <v>242</v>
       </c>
@@ -6783,33 +4731,6 @@
       <c r="F78" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P78" s="0" t="s">
         <v>245</v>
       </c>
@@ -6836,33 +4757,6 @@
       <c r="F79" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O79" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P79" s="0" t="s">
         <v>248</v>
       </c>
@@ -6889,33 +4783,6 @@
       <c r="F80" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O80" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P80" s="0" t="s">
         <v>251</v>
       </c>
@@ -6942,33 +4809,6 @@
       <c r="F81" s="0" t="n">
         <v>0.933</v>
       </c>
-      <c r="G81" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="J81" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="L81" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="M81" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="N81" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="O81" s="0" t="n">
-        <v>0.727</v>
-      </c>
       <c r="P81" s="0" t="s">
         <v>254</v>
       </c>
@@ -6995,33 +4835,6 @@
       <c r="F82" s="0" t="n">
         <v>0.923</v>
       </c>
-      <c r="G82" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="I82" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J82" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K82" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="L82" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M82" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N82" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="O82" s="0" t="n">
-        <v>0.8</v>
-      </c>
       <c r="P82" s="0" t="s">
         <v>257</v>
       </c>
@@ -7048,33 +4861,6 @@
       <c r="F83" s="0" t="n">
         <v>0.182</v>
       </c>
-      <c r="G83" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="I83" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="J83" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K83" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L83" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="M83" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N83" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O83" s="0" t="n">
-        <v>0.182</v>
-      </c>
       <c r="P83" s="0" t="s">
         <v>260</v>
       </c>
@@ -7101,33 +4887,6 @@
       <c r="F84" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G84" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="I84" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="J84" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="K84" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="L84" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="M84" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="N84" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="O84" s="0" t="n">
-        <v>0.857</v>
-      </c>
       <c r="P84" s="0" t="s">
         <v>263</v>
       </c>
@@ -7154,33 +4913,6 @@
       <c r="F85" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O85" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P85" s="0" t="s">
         <v>266</v>
       </c>
@@ -7207,33 +4939,6 @@
       <c r="F86" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O86" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P86" s="0" t="s">
         <v>269</v>
       </c>
@@ -7260,33 +4965,6 @@
       <c r="F87" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G87" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="I87" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L87" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O87" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P87" s="0" t="s">
         <v>272</v>
       </c>
@@ -7313,33 +4991,6 @@
       <c r="F88" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G88" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="I88" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="J88" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="K88" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="L88" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="M88" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N88" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="O88" s="0" t="n">
-        <v>0.947</v>
-      </c>
       <c r="P88" s="0" t="s">
         <v>275</v>
       </c>
@@ -7366,33 +5017,6 @@
       <c r="F89" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G89" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="H89" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="I89" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J89" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="K89" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="L89" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M89" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="N89" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="O89" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P89" s="0" t="s">
         <v>278</v>
       </c>
@@ -7419,33 +5043,6 @@
       <c r="F90" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G90" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="H90" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="I90" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J90" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K90" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="L90" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M90" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N90" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="O90" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P90" s="0" t="s">
         <v>281</v>
       </c>
@@ -7472,33 +5069,6 @@
       <c r="F91" s="0" t="n">
         <v>0.933</v>
       </c>
-      <c r="G91" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="I91" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="J91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="M91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O91" s="0" t="n">
-        <v>0.769</v>
-      </c>
       <c r="P91" s="0" t="s">
         <v>284</v>
       </c>
@@ -7525,33 +5095,6 @@
       <c r="F92" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="G92" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H92" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I92" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J92" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K92" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="L92" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M92" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N92" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="O92" s="0" t="n">
-        <v>0.6</v>
-      </c>
       <c r="P92" s="0" t="s">
         <v>287</v>
       </c>
@@ -7578,33 +5121,6 @@
       <c r="F93" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O93" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P93" s="0" t="s">
         <v>290</v>
       </c>
@@ -7631,33 +5147,6 @@
       <c r="F94" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G94" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="H94" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="I94" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="J94" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="K94" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="L94" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="M94" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="N94" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="O94" s="0" t="n">
-        <v>0.857</v>
-      </c>
       <c r="P94" s="0" t="s">
         <v>293</v>
       </c>
@@ -7684,33 +5173,6 @@
       <c r="F95" s="0" t="n">
         <v>0.857</v>
       </c>
-      <c r="G95" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K95" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="N95" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O95" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P95" s="0" t="s">
         <v>296</v>
       </c>
@@ -7737,33 +5199,6 @@
       <c r="F96" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G96" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="I96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K96" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O96" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P96" s="0" t="s">
         <v>299</v>
       </c>
@@ -7790,33 +5225,6 @@
       <c r="F97" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O97" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P97" s="0" t="s">
         <v>302</v>
       </c>
@@ -7843,33 +5251,6 @@
       <c r="F98" s="0" t="n">
         <v>0.824</v>
       </c>
-      <c r="G98" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="H98" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="I98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="L98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="O98" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P98" s="0" t="s">
         <v>305</v>
       </c>
@@ -7896,33 +5277,6 @@
       <c r="F99" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G99" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="H99" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="I99" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="J99" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="K99" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="L99" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="M99" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="N99" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="O99" s="0" t="n">
-        <v>0.957</v>
-      </c>
       <c r="P99" s="0" t="s">
         <v>308</v>
       </c>
@@ -7949,33 +5303,6 @@
       <c r="F100" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G100" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="I100" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="J100" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="K100" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="L100" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="M100" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="N100" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="O100" s="0" t="n">
-        <v>0.923</v>
-      </c>
       <c r="P100" s="0" t="s">
         <v>311</v>
       </c>
@@ -8002,33 +5329,6 @@
       <c r="F101" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G101" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="H101" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="I101" s="0" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="J101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L101" s="0" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="M101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O101" s="0" t="n">
-        <v>0.714</v>
-      </c>
       <c r="P101" s="0" t="s">
         <v>314</v>
       </c>
@@ -8055,33 +5355,6 @@
       <c r="F102" s="0" t="n">
         <v>0.941</v>
       </c>
-      <c r="G102" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="J102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="L102" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="M102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="O102" s="0" t="n">
-        <v>0.941</v>
-      </c>
       <c r="P102" s="0" t="s">
         <v>317</v>
       </c>
@@ -8108,33 +5381,6 @@
       <c r="F103" s="0" t="n">
         <v>0.947</v>
       </c>
-      <c r="G103" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I103" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="J103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L103" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="M103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O103" s="0" t="n">
-        <v>0.706</v>
-      </c>
       <c r="P103" s="0" t="s">
         <v>320</v>
       </c>
@@ -8161,33 +5407,6 @@
       <c r="F104" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G104" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="J104" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K104" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="L104" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="M104" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N104" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O104" s="0" t="n">
-        <v>0.857</v>
-      </c>
       <c r="P104" s="0" t="s">
         <v>323</v>
       </c>
@@ -8214,33 +5433,6 @@
       <c r="F105" s="0" t="n">
         <v>0.952</v>
       </c>
-      <c r="G105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O105" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P105" s="0" t="s">
         <v>326</v>
       </c>
@@ -8267,33 +5459,6 @@
       <c r="F106" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="G106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O106" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P106" s="0" t="s">
         <v>329</v>
       </c>
@@ -8320,33 +5485,6 @@
       <c r="F107" s="0" t="n">
         <v>0.824</v>
       </c>
-      <c r="G107" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="I107" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="J107" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="K107" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="L107" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="M107" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="N107" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="O107" s="0" t="n">
-        <v>0.933</v>
-      </c>
       <c r="P107" s="0" t="s">
         <v>332</v>
       </c>
@@ -8373,33 +5511,6 @@
       <c r="F108" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G108" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K108" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L108" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N108" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O108" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P108" s="0" t="s">
         <v>335</v>
       </c>
@@ -8426,33 +5537,6 @@
       <c r="F109" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G109" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I109" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J109" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="K109" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L109" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M109" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N109" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="O109" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P109" s="0" t="s">
         <v>338</v>
       </c>
@@ -8479,33 +5563,6 @@
       <c r="F110" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G110" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="I110" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="J110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L110" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="M110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O110" s="0" t="n">
-        <v>0.933</v>
-      </c>
       <c r="P110" s="0" t="s">
         <v>341</v>
       </c>
@@ -8532,33 +5589,6 @@
       <c r="F111" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G111" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H111" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="I111" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L111" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O111" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P111" s="0" t="s">
         <v>344</v>
       </c>
@@ -8585,33 +5615,6 @@
       <c r="F112" s="0" t="n">
         <v>0.783</v>
       </c>
-      <c r="G112" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="H112" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="I112" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="J112" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="K112" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="L112" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="M112" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="N112" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="O112" s="0" t="n">
-        <v>0.818</v>
-      </c>
       <c r="P112" s="0" t="s">
         <v>347</v>
       </c>
@@ -8638,33 +5641,6 @@
       <c r="F113" s="0" t="n">
         <v>0.941</v>
       </c>
-      <c r="G113" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H113" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I113" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="J113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="L113" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="M113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="O113" s="0" t="n">
-        <v>0.933</v>
-      </c>
       <c r="P113" s="0" t="s">
         <v>350</v>
       </c>
@@ -8691,33 +5667,6 @@
       <c r="F114" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="G114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O114" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P114" s="0" t="s">
         <v>353</v>
       </c>
@@ -8744,33 +5693,6 @@
       <c r="F115" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G115" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="I115" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="J115" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="K115" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="L115" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="M115" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N115" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="O115" s="0" t="n">
-        <v>0.824</v>
-      </c>
       <c r="P115" s="0" t="s">
         <v>356</v>
       </c>
@@ -8797,33 +5719,6 @@
       <c r="F116" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O116" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P116" s="0" t="s">
         <v>359</v>
       </c>
@@ -8850,33 +5745,6 @@
       <c r="F117" s="0" t="n">
         <v>0.857</v>
       </c>
-      <c r="G117" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="I117" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="J117" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="K117" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="L117" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="M117" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="N117" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="O117" s="0" t="n">
-        <v>0.833</v>
-      </c>
       <c r="P117" s="0" t="s">
         <v>362</v>
       </c>
@@ -8903,33 +5771,6 @@
       <c r="F118" s="0" t="n">
         <v>0.947</v>
       </c>
-      <c r="G118" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="I118" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="J118" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="K118" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="L118" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="M118" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N118" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="O118" s="0" t="n">
-        <v>0.947</v>
-      </c>
       <c r="P118" s="0" t="s">
         <v>365</v>
       </c>
@@ -8956,33 +5797,6 @@
       <c r="F119" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G119" s="0" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="H119" s="0" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="I119" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="J119" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="K119" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="L119" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="M119" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="N119" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="O119" s="0" t="n">
-        <v>0.933</v>
-      </c>
       <c r="P119" s="0" t="s">
         <v>368</v>
       </c>
@@ -9009,33 +5823,6 @@
       <c r="F120" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O120" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P120" s="0" t="s">
         <v>371</v>
       </c>
@@ -9062,33 +5849,6 @@
       <c r="F121" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="G121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O121" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P121" s="0" t="s">
         <v>374</v>
       </c>
@@ -9115,33 +5875,6 @@
       <c r="F122" s="0" t="n">
         <v>0.947</v>
       </c>
-      <c r="G122" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="H122" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="I122" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="J122" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="K122" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="L122" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="M122" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N122" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="O122" s="0" t="n">
-        <v>0.947</v>
-      </c>
       <c r="P122" s="0" t="s">
         <v>377</v>
       </c>
@@ -9168,33 +5901,6 @@
       <c r="F123" s="0" t="n">
         <v>0.909</v>
       </c>
-      <c r="G123" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="I123" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J123" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K123" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="L123" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M123" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N123" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O123" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P123" s="0" t="s">
         <v>380</v>
       </c>
@@ -9221,33 +5927,6 @@
       <c r="F124" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G124" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="H124" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="I124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="K124" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="L124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M124" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="N124" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="O124" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P124" s="0" t="s">
         <v>383</v>
       </c>
@@ -9274,33 +5953,6 @@
       <c r="F125" s="0" t="n">
         <v>0.588</v>
       </c>
-      <c r="G125" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H125" s="0" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="I125" s="0" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="J125" s="0" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="K125" s="0" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="L125" s="0" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="M125" s="0" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="N125" s="0" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="O125" s="0" t="n">
-        <v>0.714</v>
-      </c>
       <c r="P125" s="0" t="s">
         <v>386</v>
       </c>
@@ -9327,33 +5979,6 @@
       <c r="F126" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="G126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O126" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P126" s="0" t="s">
         <v>389</v>
       </c>
@@ -9380,33 +6005,6 @@
       <c r="F127" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="G127" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H127" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I127" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J127" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K127" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L127" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M127" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N127" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O127" s="0" t="n">
-        <v>0.9</v>
-      </c>
       <c r="P127" s="0" t="s">
         <v>392</v>
       </c>
@@ -9433,33 +6031,6 @@
       <c r="F128" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G128" s="0" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="H128" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="I128" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="J128" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="K128" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="L128" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="M128" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="N128" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="O128" s="0" t="n">
-        <v>0.769</v>
-      </c>
       <c r="P128" s="0" t="s">
         <v>395</v>
       </c>
@@ -9486,33 +6057,6 @@
       <c r="F129" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O129" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P129" s="0" t="s">
         <v>398</v>
       </c>
@@ -9539,33 +6083,6 @@
       <c r="F130" s="0" t="n">
         <v>0.933</v>
       </c>
-      <c r="G130" s="0" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="H130" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="I130" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="J130" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="K130" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L130" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="M130" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="N130" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O130" s="0" t="n">
-        <v>0.727</v>
-      </c>
       <c r="P130" s="0" t="s">
         <v>401</v>
       </c>
@@ -9592,33 +6109,6 @@
       <c r="F131" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="K131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M131" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P131" s="0" t="s">
         <v>404</v>
       </c>
@@ -9645,33 +6135,6 @@
       <c r="F132" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="G132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K132" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M132" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N132" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O132" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P132" s="0" t="s">
         <v>407</v>
       </c>
@@ -9698,33 +6161,6 @@
       <c r="F133" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="G133" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H133" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I133" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J133" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K133" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L133" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M133" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="N133" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O133" s="0" t="n">
-        <v>0.75</v>
-      </c>
       <c r="P133" s="0" t="s">
         <v>410</v>
       </c>
@@ -9751,33 +6187,6 @@
       <c r="F134" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G134" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H134" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I134" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J134" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="K134" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L134" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M134" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N134" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="O134" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P134" s="0" t="s">
         <v>413</v>
       </c>
@@ -9804,33 +6213,6 @@
       <c r="F135" s="0" t="n">
         <v>0.875</v>
       </c>
-      <c r="G135" s="0" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="H135" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I135" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J135" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="K135" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L135" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M135" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N135" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O135" s="0" t="n">
-        <v>0.5</v>
-      </c>
       <c r="P135" s="0" t="s">
         <v>416</v>
       </c>
@@ -9857,33 +6239,6 @@
       <c r="F136" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O136" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P136" s="0" t="s">
         <v>419</v>
       </c>
@@ -9910,33 +6265,6 @@
       <c r="F137" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O137" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P137" s="0" t="s">
         <v>422</v>
       </c>
@@ -9963,33 +6291,6 @@
       <c r="F138" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G138" s="0" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="H138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O138" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P138" s="0" t="s">
         <v>425</v>
       </c>
@@ -10016,33 +6317,6 @@
       <c r="F139" s="0" t="n">
         <v>0.941</v>
       </c>
-      <c r="G139" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H139" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I139" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="J139" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="K139" s="0" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="L139" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="M139" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="N139" s="0" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="O139" s="0" t="n">
-        <v>0.769</v>
-      </c>
       <c r="P139" s="0" t="s">
         <v>428</v>
       </c>
@@ -10069,33 +6343,6 @@
       <c r="F140" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="G140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O140" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P140" s="0" t="s">
         <v>431</v>
       </c>
@@ -10122,33 +6369,6 @@
       <c r="F141" s="0" t="n">
         <v>0.909</v>
       </c>
-      <c r="G141" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="H141" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="I141" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J141" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K141" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="L141" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M141" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N141" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O141" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P141" s="0" t="s">
         <v>434</v>
       </c>
@@ -10175,33 +6395,6 @@
       <c r="F142" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G142" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H142" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="K142" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="L142" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M142" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N142" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O142" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P142" s="0" t="s">
         <v>437</v>
       </c>
@@ -10228,33 +6421,6 @@
       <c r="F143" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G143" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="H143" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="I143" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="J143" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K143" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L143" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="M143" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O143" s="0" t="n">
-        <v>0.897</v>
-      </c>
       <c r="P143" s="0" t="s">
         <v>440</v>
       </c>
@@ -10281,33 +6447,6 @@
       <c r="F144" s="0" t="n">
         <v>0.923</v>
       </c>
-      <c r="G144" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="H144" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="I144" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="J144" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="K144" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="L144" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="M144" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="N144" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="O144" s="0" t="n">
-        <v>0.923</v>
-      </c>
       <c r="P144" s="0" t="s">
         <v>443</v>
       </c>
@@ -10334,33 +6473,6 @@
       <c r="F145" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G145" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H145" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I145" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J145" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K145" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="L145" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M145" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N145" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O145" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P145" s="0" t="s">
         <v>446</v>
       </c>
@@ -10387,33 +6499,6 @@
       <c r="F146" s="0" t="n">
         <v>0.286</v>
       </c>
-      <c r="G146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M146" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O146" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P146" s="0" t="s">
         <v>449</v>
       </c>
@@ -10440,33 +6525,6 @@
       <c r="F147" s="0" t="n">
         <v>0.571</v>
       </c>
-      <c r="G147" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="H147" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="I147" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="J147" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="K147" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="L147" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="M147" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="N147" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="O147" s="0" t="n">
-        <v>0.727</v>
-      </c>
       <c r="P147" s="0" t="s">
         <v>452</v>
       </c>
@@ -10493,33 +6551,6 @@
       <c r="F148" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G148" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H148" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I148" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J148" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="K148" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L148" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M148" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N148" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="O148" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P148" s="0" t="s">
         <v>455</v>
       </c>
@@ -10546,33 +6577,6 @@
       <c r="F149" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G149" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H149" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K149" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L149" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O149" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P149" s="0" t="s">
         <v>458</v>
       </c>
@@ -10599,33 +6603,6 @@
       <c r="F150" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G150" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="H150" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="I150" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J150" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="K150" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="L150" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M150" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="N150" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="O150" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P150" s="0" t="s">
         <v>461</v>
       </c>
@@ -10652,33 +6629,6 @@
       <c r="F151" s="0" t="n">
         <v>0.941</v>
       </c>
-      <c r="G151" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O151" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P151" s="0" t="s">
         <v>464</v>
       </c>
@@ -10705,33 +6655,6 @@
       <c r="F152" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="G152" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H152" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="I152" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="J152" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="K152" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="L152" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="M152" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N152" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O152" s="0" t="n">
-        <v>0.667</v>
-      </c>
       <c r="P152" s="0" t="s">
         <v>467</v>
       </c>
@@ -10758,33 +6681,6 @@
       <c r="F153" s="0" t="n">
         <v>0.963</v>
       </c>
-      <c r="G153" s="0" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="H153" s="0" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="I153" s="0" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="J153" s="0" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="K153" s="0" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="L153" s="0" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="M153" s="0" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="N153" s="0" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="O153" s="0" t="n">
-        <v>0.963</v>
-      </c>
       <c r="P153" s="0" t="s">
         <v>470</v>
       </c>
@@ -10811,33 +6707,6 @@
       <c r="F154" s="0" t="n">
         <v>0.833</v>
       </c>
-      <c r="G154" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="H154" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="I154" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="J154" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="K154" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="L154" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="M154" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="N154" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="O154" s="0" t="n">
-        <v>0.952</v>
-      </c>
       <c r="P154" s="0" t="s">
         <v>473</v>
       </c>
@@ -10864,33 +6733,6 @@
       <c r="F155" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G155" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="H155" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="I155" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="J155" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K155" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L155" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="M155" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O155" s="0" t="n">
-        <v>0.917</v>
-      </c>
       <c r="P155" s="0" t="s">
         <v>476</v>
       </c>
@@ -10917,33 +6759,6 @@
       <c r="F156" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G156" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="I156" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="J156" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="K156" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L156" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="M156" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N156" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="O156" s="0" t="n">
-        <v>0.706</v>
-      </c>
       <c r="P156" s="0" t="s">
         <v>479</v>
       </c>
@@ -10970,33 +6785,6 @@
       <c r="F157" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="G157" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H157" s="0" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="I157" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" s="0" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="K157" s="0" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="L157" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M157" s="0" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="N157" s="0" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="O157" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P157" s="0" t="s">
         <v>482</v>
       </c>
@@ -11023,33 +6811,6 @@
       <c r="F158" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="G158" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="H158" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="I158" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="J158" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K158" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L158" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="M158" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="N158" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O158" s="0" t="n">
-        <v>0.833</v>
-      </c>
       <c r="P158" s="0" t="s">
         <v>485</v>
       </c>
@@ -11076,33 +6837,6 @@
       <c r="F159" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="G159" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H159" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K159" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L159" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M159" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="N159" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O159" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P159" s="0" t="s">
         <v>488</v>
       </c>
@@ -11129,33 +6863,6 @@
       <c r="F160" s="0" t="n">
         <v>0.857</v>
       </c>
-      <c r="G160" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H160" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="I160" s="0" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="J160" s="0" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="K160" s="0" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="L160" s="0" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="M160" s="0" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="N160" s="0" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="O160" s="0" t="n">
-        <v>0.556</v>
-      </c>
       <c r="P160" s="0" t="s">
         <v>491</v>
       </c>
@@ -11182,33 +6889,6 @@
       <c r="F161" s="0" t="n">
         <v>0.897</v>
       </c>
-      <c r="G161" s="0" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="H161" s="0" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="I161" s="0" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="J161" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K161" s="0" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="L161" s="0" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="M161" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" s="0" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="O161" s="0" t="n">
-        <v>0.421</v>
-      </c>
       <c r="P161" s="0" t="s">
         <v>494</v>
       </c>
@@ -11235,33 +6915,6 @@
       <c r="F162" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="G162" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H162" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I162" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" s="0" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="K162" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="L162" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M162" s="0" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="N162" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="O162" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P162" s="0" t="s">
         <v>497</v>
       </c>
@@ -11288,33 +6941,6 @@
       <c r="F163" s="0" t="n">
         <v>0.818</v>
       </c>
-      <c r="G163" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="H163" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="I163" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J163" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K163" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L163" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M163" s="0" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="N163" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O163" s="0" t="n">
-        <v>0.7</v>
-      </c>
       <c r="P163" s="0" t="s">
         <v>500</v>
       </c>
@@ -11341,33 +6967,6 @@
       <c r="F164" s="0" t="n">
         <v>0.615</v>
       </c>
-      <c r="G164" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="H164" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="I164" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="J164" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="K164" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="L164" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="M164" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="N164" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="O164" s="0" t="n">
-        <v>0.615</v>
-      </c>
       <c r="P164" s="0" t="s">
         <v>503</v>
       </c>
@@ -11394,33 +6993,6 @@
       <c r="F165" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="G165" s="0" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="H165" s="0" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="I165" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J165" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K165" s="0" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="L165" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M165" s="0" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="N165" s="0" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="O165" s="0" t="n">
-        <v>0.6</v>
-      </c>
       <c r="P165" s="0" t="s">
         <v>506</v>
       </c>
@@ -11447,33 +7019,6 @@
       <c r="F166" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="G166" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="H166" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I166" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="J166" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K166" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L166" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="M166" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N166" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O166" s="0" t="n">
-        <v>0.667</v>
-      </c>
       <c r="P166" s="0" t="s">
         <v>509</v>
       </c>
@@ -11500,33 +7045,6 @@
       <c r="F167" s="0" t="n">
         <v>0.615</v>
       </c>
-      <c r="G167" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="H167" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="I167" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="J167" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="K167" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="L167" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="M167" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="N167" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="O167" s="0" t="n">
-        <v>0.615</v>
-      </c>
       <c r="P167" s="0" t="s">
         <v>512</v>
       </c>
@@ -11553,33 +7071,6 @@
       <c r="F168" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G168" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H168" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K168" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="L168" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M168" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="O168" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P168" s="0" t="s">
         <v>515</v>
       </c>
@@ -11606,33 +7097,6 @@
       <c r="F169" s="0" t="n">
         <v>0.938</v>
       </c>
-      <c r="G169" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="H169" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="I169" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="J169" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="K169" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="L169" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="M169" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="N169" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="O169" s="0" t="n">
-        <v>0.938</v>
-      </c>
       <c r="P169" s="0" t="s">
         <v>518</v>
       </c>
@@ -11659,33 +7123,6 @@
       <c r="F170" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="G170" s="0" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="H170" s="0" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="I170" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J170" s="0" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="K170" s="0" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="L170" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M170" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="N170" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="O170" s="0" t="n">
-        <v>0.5</v>
-      </c>
       <c r="P170" s="0" t="s">
         <v>521</v>
       </c>
@@ -11712,33 +7149,6 @@
       <c r="F171" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="G171" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="H171" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="I171" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="J171" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="K171" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="L171" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="M171" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="N171" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="O171" s="0" t="n">
-        <v>0.941</v>
-      </c>
       <c r="P171" s="0" t="s">
         <v>524</v>
       </c>
@@ -11765,33 +7175,6 @@
       <c r="F172" s="0" t="n">
         <v>0.833</v>
       </c>
-      <c r="G172" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H172" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I172" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="J172" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K172" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="L172" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="M172" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O172" s="0" t="n">
-        <v>0.952</v>
-      </c>
       <c r="P172" s="0" t="s">
         <v>527</v>
       </c>
@@ -11818,33 +7201,6 @@
       <c r="F173" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G173" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H173" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K173" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L173" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O173" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P173" s="0" t="s">
         <v>530</v>
       </c>
@@ -11871,33 +7227,6 @@
       <c r="F174" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G174" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="H174" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="I174" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K174" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L174" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="N174" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O174" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P174" s="0" t="s">
         <v>533</v>
       </c>
@@ -11924,33 +7253,6 @@
       <c r="F175" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="G175" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M175" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O175" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P175" s="0" t="s">
         <v>536</v>
       </c>
@@ -11977,33 +7279,6 @@
       <c r="F176" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O176" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P176" s="0" t="s">
         <v>539</v>
       </c>
@@ -12030,33 +7305,6 @@
       <c r="F177" s="0" t="n">
         <v>0.556</v>
       </c>
-      <c r="G177" s="0" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="H177" s="0" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="I177" s="0" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="J177" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="K177" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="L177" s="0" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="M177" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="N177" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="O177" s="0" t="n">
-        <v>0.421</v>
-      </c>
       <c r="P177" s="0" t="s">
         <v>542</v>
       </c>
@@ -12083,33 +7331,6 @@
       <c r="F178" s="0" t="n">
         <v>0.743</v>
       </c>
-      <c r="G178" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H178" s="0" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I178" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J178" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="K178" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="L178" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M178" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="N178" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="O178" s="0" t="n">
-        <v>0.75</v>
-      </c>
       <c r="P178" s="0" t="s">
         <v>545</v>
       </c>
@@ -12136,33 +7357,6 @@
       <c r="F179" s="0" t="n">
         <v>0.545</v>
       </c>
-      <c r="G179" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H179" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I179" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J179" s="0" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="K179" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L179" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M179" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O179" s="0" t="n">
-        <v>0.3</v>
-      </c>
       <c r="P179" s="0" t="s">
         <v>548</v>
       </c>
@@ -12189,33 +7383,6 @@
       <c r="F180" s="0" t="n">
         <v>0.957</v>
       </c>
-      <c r="G180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O180" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P180" s="0" t="s">
         <v>551</v>
       </c>
@@ -12242,33 +7409,6 @@
       <c r="F181" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G181" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="H181" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" s="0" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="J181" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="K181" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="L181" s="0" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="M181" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="N181" s="0" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="O181" s="0" t="n">
-        <v>0.552</v>
-      </c>
       <c r="P181" s="0" t="s">
         <v>554</v>
       </c>
@@ -12295,33 +7435,6 @@
       <c r="F182" s="0" t="n">
         <v>0.97</v>
       </c>
-      <c r="G182" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="H182" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="I182" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J182" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K182" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="L182" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M182" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N182" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O182" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P182" s="0" t="s">
         <v>557</v>
       </c>
@@ -12348,33 +7461,6 @@
       <c r="F183" s="0" t="n">
         <v>0.818</v>
       </c>
-      <c r="G183" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="H183" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="I183" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="J183" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K183" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="L183" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="M183" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N183" s="0" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="O183" s="0" t="n">
-        <v>0.857</v>
-      </c>
       <c r="P183" s="0" t="s">
         <v>560</v>
       </c>
@@ -12401,33 +7487,6 @@
       <c r="F184" s="0" t="n">
         <v>0.909</v>
       </c>
-      <c r="G184" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H184" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="I184" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J184" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K184" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="L184" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M184" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="N184" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O184" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P184" s="0" t="s">
         <v>563</v>
       </c>
@@ -12454,33 +7513,6 @@
       <c r="F185" s="0" t="n">
         <v>0.741</v>
       </c>
-      <c r="G185" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H185" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="J185" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K185" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="L185" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="M185" s="0" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="N185" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O185" s="0" t="n">
-        <v>0.357</v>
-      </c>
       <c r="P185" s="0" t="s">
         <v>566</v>
       </c>
@@ -12507,33 +7539,6 @@
       <c r="F186" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O186" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P186" s="0" t="s">
         <v>569</v>
       </c>
@@ -12560,33 +7565,6 @@
       <c r="F187" s="0" t="n">
         <v>0.842</v>
       </c>
-      <c r="G187" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H187" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I187" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J187" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="K187" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="L187" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M187" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="N187" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="O187" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P187" s="0" t="s">
         <v>572</v>
       </c>
@@ -12613,33 +7591,6 @@
       <c r="F188" s="0" t="n">
         <v>0.895</v>
       </c>
-      <c r="G188" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="H188" s="0" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="I188" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="J188" s="0" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="K188" s="0" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="L188" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="M188" s="0" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="N188" s="0" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="O188" s="0" t="n">
-        <v>0.571</v>
-      </c>
       <c r="P188" s="0" t="s">
         <v>575</v>
       </c>
@@ -12666,33 +7617,6 @@
       <c r="F189" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G189" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="H189" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="I189" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J189" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="K189" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="L189" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M189" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="N189" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="O189" s="0" t="n">
-        <v>0.8</v>
-      </c>
       <c r="P189" s="0" t="s">
         <v>578</v>
       </c>
@@ -12719,33 +7643,6 @@
       <c r="F190" s="0" t="n">
         <v>0.846</v>
       </c>
-      <c r="G190" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="H190" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="I190" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="J190" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="K190" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="L190" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="M190" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="N190" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="O190" s="0" t="n">
-        <v>0.968</v>
-      </c>
       <c r="P190" s="0" t="s">
         <v>581</v>
       </c>
@@ -12772,33 +7669,6 @@
       <c r="F191" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G191" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H191" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I191" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J191" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="K191" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="L191" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M191" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="N191" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="O191" s="0" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P191" s="0" t="s">
         <v>584</v>
       </c>
@@ -12825,33 +7695,6 @@
       <c r="F192" s="0" t="n">
         <v>0.759</v>
       </c>
-      <c r="G192" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="H192" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="I192" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="J192" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="K192" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="L192" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="M192" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="N192" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="O192" s="0" t="n">
-        <v>0.769</v>
-      </c>
       <c r="P192" s="0" t="s">
         <v>587</v>
       </c>
@@ -12878,33 +7721,6 @@
       <c r="F193" s="0" t="n">
         <v>0.833</v>
       </c>
-      <c r="G193" s="0" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="H193" s="0" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="I193" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="J193" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="K193" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="L193" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="M193" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N193" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O193" s="0" t="n">
-        <v>0.727</v>
-      </c>
       <c r="P193" s="0" t="s">
         <v>590</v>
       </c>
@@ -12931,33 +7747,6 @@
       <c r="F194" s="0" t="n">
         <v>0.867</v>
       </c>
-      <c r="G194" s="0" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="H194" s="0" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="I194" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="J194" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="K194" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="L194" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="M194" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="N194" s="0" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="O194" s="0" t="n">
-        <v>0.923</v>
-      </c>
       <c r="P194" s="0" t="s">
         <v>593</v>
       </c>
@@ -12984,33 +7773,6 @@
       <c r="F195" s="0" t="n">
         <v>0.941</v>
       </c>
-      <c r="G195" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H195" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="I195" s="0" t="n">
-        <v>0.692</v>
-      </c>
-      <c r="J195" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K195" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="L195" s="0" t="n">
-        <v>0.692</v>
-      </c>
-      <c r="M195" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="O195" s="0" t="n">
-        <v>0.692</v>
-      </c>
       <c r="P195" s="0" t="s">
         <v>596</v>
       </c>
@@ -13037,33 +7799,6 @@
       <c r="F196" s="0" t="n">
         <v>0.733</v>
       </c>
-      <c r="G196" s="0" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="H196" s="0" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="I196" s="0" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="J196" s="0" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="K196" s="0" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="L196" s="0" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="M196" s="0" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="N196" s="0" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="O196" s="0" t="n">
-        <v>0.417</v>
-      </c>
       <c r="P196" s="0" t="s">
         <v>599</v>
       </c>
@@ -13090,33 +7825,6 @@
       <c r="F197" s="0" t="n">
         <v>0.947</v>
       </c>
-      <c r="G197" s="0" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="H197" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="I197" s="0" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="J197" s="0" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="K197" s="0" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="L197" s="0" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="M197" s="0" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N197" s="0" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="O197" s="0" t="n">
-        <v>0.688</v>
-      </c>
       <c r="P197" s="0" t="s">
         <v>602</v>
       </c>
@@ -13143,33 +7851,6 @@
       <c r="F198" s="0" t="n">
         <v>0.815</v>
       </c>
-      <c r="G198" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H198" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I198" s="0" t="n">
-        <v>0.815</v>
-      </c>
-      <c r="J198" s="0" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="K198" s="0" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="L198" s="0" t="n">
-        <v>0.815</v>
-      </c>
-      <c r="M198" s="0" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="N198" s="0" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="O198" s="0" t="n">
-        <v>0.815</v>
-      </c>
       <c r="P198" s="0" t="s">
         <v>605</v>
       </c>
@@ -13196,33 +7877,6 @@
       <c r="F199" s="0" t="n">
         <v>0.727</v>
       </c>
-      <c r="G199" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="H199" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="I199" s="0" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="J199" s="0" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="K199" s="0" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="L199" s="0" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="M199" s="0" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="N199" s="0" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="O199" s="0" t="n">
-        <v>0.688</v>
-      </c>
       <c r="P199" s="0" t="s">
         <v>608</v>
       </c>
@@ -13249,33 +7903,6 @@
       <c r="F200" s="0" t="n">
         <v>0.974</v>
       </c>
-      <c r="G200" s="0" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="H200" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I200" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="J200" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="K200" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L200" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="M200" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="N200" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O200" s="0" t="n">
-        <v>0.833</v>
-      </c>
       <c r="P200" s="0" t="s">
         <v>611</v>
       </c>
@@ -13302,33 +7929,6 @@
       <c r="F201" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G201" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="H201" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="I201" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="J201" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="K201" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="L201" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="M201" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="N201" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="O201" s="0" t="n">
-        <v>0.727</v>
-      </c>
       <c r="P201" s="0" t="s">
         <v>614</v>
       </c>
@@ -13355,33 +7955,6 @@
       <c r="F202" s="0" t="n">
         <v>0.526</v>
       </c>
-      <c r="G202" s="0" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="H202" s="0" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="I202" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K202" s="0" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="L202" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M202" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N202" s="0" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="O202" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P202" s="0" t="s">
         <v>617</v>
       </c>
@@ -13408,33 +7981,6 @@
       <c r="F203" s="0" t="n">
         <v>0.941</v>
       </c>
-      <c r="G203" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H203" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I203" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J203" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K203" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="L203" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="M203" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N203" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O203" s="0" t="n">
-        <v>0.97</v>
-      </c>
       <c r="P203" s="0" t="s">
         <v>620</v>
       </c>
@@ -13461,33 +8007,6 @@
       <c r="F204" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G204" s="0" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="H204" s="0" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="I204" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="J204" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="K204" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="L204" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="M204" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N204" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O204" s="0" t="n">
-        <v>0.706</v>
-      </c>
       <c r="P204" s="0" t="s">
         <v>623</v>
       </c>
@@ -13514,33 +8033,6 @@
       <c r="F205" s="0" t="n">
         <v>0.222</v>
       </c>
-      <c r="G205" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H205" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" s="0" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="K205" s="0" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="L205" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N205" s="0" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="O205" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P205" s="0" t="s">
         <v>626</v>
       </c>
@@ -13567,33 +8059,6 @@
       <c r="F206" s="0" t="n">
         <v>0.533</v>
       </c>
-      <c r="G206" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H206" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I206" s="0" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="J206" s="0" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="K206" s="0" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="L206" s="0" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="M206" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="N206" s="0" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="O206" s="0" t="n">
-        <v>0.533</v>
-      </c>
       <c r="P206" s="0" t="s">
         <v>629</v>
       </c>
@@ -13620,33 +8085,6 @@
       <c r="F207" s="0" t="n">
         <v>0.944</v>
       </c>
-      <c r="G207" s="0" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="H207" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="I207" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="J207" s="0" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="K207" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L207" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="M207" s="0" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="N207" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="O207" s="0" t="n">
-        <v>0.625</v>
-      </c>
       <c r="P207" s="0" t="s">
         <v>632</v>
       </c>
@@ -13673,33 +8111,6 @@
       <c r="F208" s="0" t="n">
         <v>0.944</v>
       </c>
-      <c r="G208" s="0" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="H208" s="0" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="I208" s="0" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="J208" s="0" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="K208" s="0" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="L208" s="0" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="M208" s="0" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="N208" s="0" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="O208" s="0" t="n">
-        <v>0.647</v>
-      </c>
       <c r="P208" s="0" t="s">
         <v>635</v>
       </c>
@@ -13726,33 +8137,6 @@
       <c r="F209" s="0" t="n">
         <v>0.97</v>
       </c>
-      <c r="G209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O209" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P209" s="0" t="s">
         <v>638</v>
       </c>
@@ -13779,33 +8163,6 @@
       <c r="F210" s="0" t="n">
         <v>0.242</v>
       </c>
-      <c r="G210" s="0" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="H210" s="0" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="I210" s="0" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="J210" s="0" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="K210" s="0" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="L210" s="0" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="M210" s="0" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="N210" s="0" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="O210" s="0" t="n">
-        <v>0.308</v>
-      </c>
       <c r="P210" s="0" t="s">
         <v>641</v>
       </c>
@@ -13832,33 +8189,6 @@
       <c r="F211" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="G211" s="0" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="H211" s="0" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="I211" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J211" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K211" s="0" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="L211" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M211" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N211" s="0" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="O211" s="0" t="n">
-        <v>0.75</v>
-      </c>
       <c r="P211" s="0" t="s">
         <v>644</v>
       </c>
@@ -13885,33 +8215,6 @@
       <c r="F212" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="G212" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H212" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" s="0" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="J212" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K212" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L212" s="0" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="M212" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N212" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O212" s="0" t="n">
-        <v>0.894</v>
-      </c>
       <c r="P212" s="0" t="s">
         <v>647</v>
       </c>
@@ -13938,33 +8241,6 @@
       <c r="F213" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="G213" s="0" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="H213" s="0" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="I213" s="0" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="J213" s="0" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="K213" s="0" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="L213" s="0" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="M213" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N213" s="0" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="O213" s="0" t="n">
-        <v>0.231</v>
-      </c>
       <c r="P213" s="0" t="s">
         <v>650</v>
       </c>
@@ -13991,33 +8267,6 @@
       <c r="F214" s="0" t="n">
         <v>0.941</v>
       </c>
-      <c r="G214" s="0" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H214" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="I214" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J214" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K214" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="L214" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="M214" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N214" s="0" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="O214" s="0" t="n">
-        <v>0.97</v>
-      </c>
       <c r="P214" s="0" t="s">
         <v>653</v>
       </c>
@@ -14044,33 +8293,6 @@
       <c r="F215" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="G215" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="H215" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="I215" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="J215" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="K215" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="L215" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="M215" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="N215" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="O215" s="0" t="n">
-        <v>0.909</v>
-      </c>
       <c r="P215" s="0" t="s">
         <v>656</v>
       </c>
@@ -14097,33 +8319,6 @@
       <c r="F216" s="0" t="n">
         <v>0.981</v>
       </c>
-      <c r="G216" s="0" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="H216" s="0" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="I216" s="0" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="J216" s="0" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="K216" s="0" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="L216" s="0" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="M216" s="0" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="N216" s="0" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="O216" s="0" t="n">
-        <v>0.981</v>
-      </c>
       <c r="P216" s="0" t="s">
         <v>659</v>
       </c>
@@ -14150,33 +8345,6 @@
       <c r="F217" s="0" t="n">
         <v>0.875</v>
       </c>
-      <c r="G217" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="H217" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I217" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J217" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K217" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L217" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M217" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N217" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O217" s="0" t="n">
-        <v>0.5</v>
-      </c>
       <c r="P217" s="0" t="s">
         <v>662</v>
       </c>
@@ -14203,33 +8371,6 @@
       <c r="F218" s="0" t="n">
         <v>0.976</v>
       </c>
-      <c r="G218" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H218" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I218" s="0" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="J218" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K218" s="0" t="n">
-        <v>0.732</v>
-      </c>
-      <c r="L218" s="0" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="M218" s="0" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="N218" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O218" s="0" t="n">
-        <v>0.474</v>
-      </c>
       <c r="P218" s="0" t="s">
         <v>665</v>
       </c>
@@ -14256,33 +8397,6 @@
       <c r="F219" s="0" t="n">
         <v>0.895</v>
       </c>
-      <c r="G219" s="0" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="H219" s="0" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="I219" s="0" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="J219" s="0" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="K219" s="0" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="L219" s="0" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="M219" s="0" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="N219" s="0" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="O219" s="0" t="n">
-        <v>0.895</v>
-      </c>
       <c r="P219" s="0" t="s">
         <v>668</v>
       </c>
@@ -14309,33 +8423,6 @@
       <c r="F220" s="0" t="n">
         <v>0.585</v>
       </c>
-      <c r="G220" s="0" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="H220" s="0" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="I220" s="0" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="J220" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K220" s="0" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="L220" s="0" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="M220" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O220" s="0" t="n">
-        <v>0.389</v>
-      </c>
       <c r="P220" s="0" t="s">
         <v>671</v>
       </c>
@@ -14362,33 +8449,6 @@
       <c r="F221" s="0" t="n">
         <v>0.958</v>
       </c>
-      <c r="G221" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="H221" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="I221" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="J221" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="K221" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="L221" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="M221" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="N221" s="0" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="O221" s="0" t="n">
-        <v>0.979</v>
-      </c>
       <c r="P221" s="0" t="s">
         <v>674</v>
       </c>
@@ -14415,33 +8475,6 @@
       <c r="F222" s="0" t="n">
         <v>0.88</v>
       </c>
-      <c r="G222" s="0" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="H222" s="0" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="I222" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="J222" s="0" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="K222" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L222" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="M222" s="0" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="N222" s="0" t="n">
-        <v>0.936</v>
-      </c>
-      <c r="O222" s="0" t="n">
-        <v>0.857</v>
-      </c>
       <c r="P222" s="0" t="s">
         <v>677</v>
       </c>
@@ -14468,33 +8501,6 @@
       <c r="F223" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="G223" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="H223" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="I223" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="J223" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="K223" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="L223" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="M223" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="N223" s="0" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="O223" s="0" t="n">
-        <v>0.913</v>
-      </c>
       <c r="P223" s="0" t="s">
         <v>680</v>
       </c>
@@ -14521,33 +8527,6 @@
       <c r="F224" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G224" s="0" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="H224" s="0" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="I224" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" s="0" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="K224" s="0" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="L224" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M224" s="0" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="N224" s="0" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="O224" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P224" s="0" t="s">
         <v>683</v>
       </c>
@@ -14574,33 +8553,6 @@
       <c r="F225" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="G225" s="0" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="H225" s="0" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="I225" s="0" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="J225" s="0" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="K225" s="0" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="L225" s="0" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="M225" s="0" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="N225" s="0" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="O225" s="0" t="n">
-        <v>0.588</v>
-      </c>
       <c r="P225" s="0" t="s">
         <v>686</v>
       </c>
@@ -14627,33 +8579,6 @@
       <c r="F226" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="G226" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H226" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I226" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J226" s="0" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="K226" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L226" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="M226" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="N226" s="0" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="O226" s="0" t="n">
-        <v>0.64</v>
-      </c>
       <c r="P226" s="0" t="s">
         <v>689</v>
       </c>
@@ -14680,33 +8605,6 @@
       <c r="F227" s="0" t="n">
         <v>0.842</v>
       </c>
-      <c r="G227" s="0" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="H227" s="0" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="I227" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="J227" s="0" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="K227" s="0" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="L227" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="M227" s="0" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="N227" s="0" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="O227" s="0" t="n">
-        <v>0.833</v>
-      </c>
       <c r="P227" s="0" t="s">
         <v>692</v>
       </c>
@@ -14733,33 +8631,6 @@
       <c r="F228" s="0" t="n">
         <v>0.571</v>
       </c>
-      <c r="G228" s="0" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="H228" s="0" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="I228" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" s="0" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="K228" s="0" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="L228" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M228" s="0" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="N228" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O228" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P228" s="0" t="s">
         <v>695</v>
       </c>
@@ -14786,33 +8657,6 @@
       <c r="F229" s="0" t="n">
         <v>0.706</v>
       </c>
-      <c r="G229" s="0" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="H229" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I229" s="0" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="J229" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K229" s="0" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="L229" s="0" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="M229" s="0" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="N229" s="0" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="O229" s="0" t="n">
-        <v>0.788</v>
-      </c>
       <c r="P229" s="0" t="s">
         <v>698</v>
       </c>
@@ -14839,33 +8683,6 @@
       <c r="F230" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G230" s="0" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="H230" s="0" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="I230" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" s="0" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="K230" s="0" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="L230" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M230" s="0" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="N230" s="0" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="O230" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P230" s="0" t="s">
         <v>701</v>
       </c>
@@ -14892,33 +8709,6 @@
       <c r="F231" s="0" t="n">
         <v>0.933</v>
       </c>
-      <c r="G231" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H231" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I231" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J231" s="0" t="n">
-        <v>0.955</v>
-      </c>
-      <c r="K231" s="0" t="n">
-        <v>0.955</v>
-      </c>
-      <c r="L231" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="M231" s="0" t="n">
-        <v>0.955</v>
-      </c>
-      <c r="N231" s="0" t="n">
-        <v>0.955</v>
-      </c>
-      <c r="O231" s="0" t="n">
-        <v>0.93</v>
-      </c>
       <c r="P231" s="0" t="s">
         <v>704</v>
       </c>
@@ -14945,33 +8735,6 @@
       <c r="F232" s="0" t="n">
         <v>0.913</v>
       </c>
-      <c r="G232" s="0" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="H232" s="0" t="n">
-        <v>0.884</v>
-      </c>
-      <c r="I232" s="0" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="J232" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="K232" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="L232" s="0" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="M232" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="N232" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="O232" s="0" t="n">
-        <v>0.927</v>
-      </c>
       <c r="P232" s="0" t="s">
         <v>707</v>
       </c>
@@ -14998,33 +8761,6 @@
       <c r="F233" s="0" t="n">
         <v>0.889</v>
       </c>
-      <c r="G233" s="0" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="H233" s="0" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="I233" s="0" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="J233" s="0" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="K233" s="0" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="L233" s="0" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="M233" s="0" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="N233" s="0" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="O233" s="0" t="n">
-        <v>0.756</v>
-      </c>
       <c r="P233" s="0" t="s">
         <v>710</v>
       </c>
@@ -15051,33 +8787,6 @@
       <c r="F234" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="G234" s="0" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="H234" s="0" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="I234" s="0" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="J234" s="0" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="K234" s="0" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="L234" s="0" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="M234" s="0" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="N234" s="0" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="O234" s="0" t="n">
-        <v>0.462</v>
-      </c>
       <c r="P234" s="0" t="s">
         <v>713</v>
       </c>
@@ -15104,33 +8813,6 @@
       <c r="F235" s="0" t="n">
         <v>0.95</v>
       </c>
-      <c r="G235" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H235" s="0" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="I235" s="0" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="J235" s="0" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="K235" s="0" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="L235" s="0" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="M235" s="0" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="N235" s="0" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="O235" s="0" t="n">
-        <v>0.632</v>
-      </c>
       <c r="P235" s="0" t="s">
         <v>716</v>
       </c>
@@ -15157,33 +8839,6 @@
       <c r="F236" s="0" t="n">
         <v>0.743</v>
       </c>
-      <c r="G236" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="H236" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="I236" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" s="0" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="K236" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="L236" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M236" s="0" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="N236" s="0" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="O236" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P236" s="0" t="s">
         <v>719</v>
       </c>
@@ -15210,33 +8865,6 @@
       <c r="F237" s="0" t="n">
         <v>0.894</v>
       </c>
-      <c r="G237" s="0" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="H237" s="0" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="I237" s="0" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="J237" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K237" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L237" s="0" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="M237" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="N237" s="0" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="O237" s="0" t="n">
-        <v>0.829</v>
-      </c>
       <c r="P237" s="0" t="s">
         <v>722</v>
       </c>
@@ -15263,33 +8891,6 @@
       <c r="F238" s="0" t="n">
         <v>0.913</v>
       </c>
-      <c r="G238" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H238" s="0" t="n">
-        <v>0.826</v>
-      </c>
-      <c r="I238" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J238" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K238" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L238" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="M238" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="N238" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="O238" s="0" t="n">
-        <v>0.93</v>
-      </c>
       <c r="P238" s="0" t="s">
         <v>725</v>
       </c>
@@ -15316,33 +8917,6 @@
       <c r="F239" s="0" t="n">
         <v>0.931</v>
       </c>
-      <c r="G239" s="0" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="H239" s="0" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="I239" s="0" t="n">
-        <v>0.815</v>
-      </c>
-      <c r="J239" s="0" t="n">
-        <v>0.931</v>
-      </c>
-      <c r="K239" s="0" t="n">
-        <v>0.931</v>
-      </c>
-      <c r="L239" s="0" t="n">
-        <v>0.815</v>
-      </c>
-      <c r="M239" s="0" t="n">
-        <v>0.931</v>
-      </c>
-      <c r="N239" s="0" t="n">
-        <v>0.931</v>
-      </c>
-      <c r="O239" s="0" t="n">
-        <v>0.815</v>
-      </c>
       <c r="P239" s="0" t="s">
         <v>728</v>
       </c>
@@ -15369,33 +8943,6 @@
       <c r="F240" s="0" t="n">
         <v>0.737</v>
       </c>
-      <c r="G240" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H240" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I240" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="J240" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="K240" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L240" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="M240" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N240" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O240" s="0" t="n">
-        <v>0.667</v>
-      </c>
       <c r="P240" s="0" t="s">
         <v>731</v>
       </c>
@@ -15422,33 +8969,6 @@
       <c r="F241" s="0" t="n">
         <v>0.195</v>
       </c>
-      <c r="G241" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H241" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K241" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L241" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M241" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N241" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O241" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P241" s="0" t="s">
         <v>734</v>
       </c>
@@ -15475,33 +8995,6 @@
       <c r="F242" s="0" t="n">
         <v>0.826</v>
       </c>
-      <c r="G242" s="0" t="n">
-        <v>0.739</v>
-      </c>
-      <c r="H242" s="0" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="I242" s="0" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="J242" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K242" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L242" s="0" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="M242" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N242" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O242" s="0" t="n">
-        <v>0.791</v>
-      </c>
       <c r="P242" s="0" t="s">
         <v>737</v>
       </c>
@@ -15528,33 +9021,6 @@
       <c r="F243" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="G243" s="0" t="n">
-        <v>0.692</v>
-      </c>
-      <c r="H243" s="0" t="n">
-        <v>0.692</v>
-      </c>
-      <c r="I243" s="0" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="J243" s="0" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="K243" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L243" s="0" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="M243" s="0" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="N243" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O243" s="0" t="n">
-        <v>0.711</v>
-      </c>
       <c r="P243" s="0" t="s">
         <v>740</v>
       </c>
@@ -15581,33 +9047,6 @@
       <c r="F244" s="0" t="n">
         <v>0.791</v>
       </c>
-      <c r="G244" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="H244" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="I244" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="J244" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="K244" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="L244" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="M244" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="N244" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="O244" s="0" t="n">
-        <v>0.913</v>
-      </c>
       <c r="P244" s="0" t="s">
         <v>743</v>
       </c>
@@ -15634,33 +9073,6 @@
       <c r="F245" s="0" t="n">
         <v>0.421</v>
       </c>
-      <c r="G245" s="0" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="H245" s="0" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="I245" s="0" t="n">
-        <v>0.826</v>
-      </c>
-      <c r="J245" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="K245" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="L245" s="0" t="n">
-        <v>0.826</v>
-      </c>
-      <c r="M245" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="N245" s="0" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="O245" s="0" t="n">
-        <v>0.826</v>
-      </c>
       <c r="P245" s="0" t="s">
         <v>746</v>
       </c>
@@ -15687,33 +9099,6 @@
       <c r="F246" s="0" t="n">
         <v>0.836</v>
       </c>
-      <c r="G246" s="0" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="H246" s="0" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="I246" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="J246" s="0" t="n">
-        <v>0.787</v>
-      </c>
-      <c r="K246" s="0" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="L246" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="M246" s="0" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="N246" s="0" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="O246" s="0" t="n">
-        <v>0.182</v>
-      </c>
       <c r="P246" s="0" t="s">
         <v>749</v>
       </c>
@@ -15740,33 +9125,6 @@
       <c r="F247" s="0" t="n">
         <v>0.864</v>
       </c>
-      <c r="G247" s="0" t="n">
-        <v>0.744</v>
-      </c>
-      <c r="H247" s="0" t="n">
-        <v>0.744</v>
-      </c>
-      <c r="I247" s="0" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="J247" s="0" t="n">
-        <v>0.744</v>
-      </c>
-      <c r="K247" s="0" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="L247" s="0" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="M247" s="0" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="N247" s="0" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="O247" s="0" t="n">
-        <v>0.474</v>
-      </c>
       <c r="P247" s="0" t="s">
         <v>752</v>
       </c>
@@ -15793,33 +9151,6 @@
       <c r="F248" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="G248" s="0" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="H248" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I248" s="0" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="J248" s="0" t="n">
-        <v>0.656</v>
-      </c>
-      <c r="K248" s="0" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="L248" s="0" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="M248" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N248" s="0" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="O248" s="0" t="n">
-        <v>0.311</v>
-      </c>
       <c r="P248" s="0" t="s">
         <v>755</v>
       </c>
@@ -15846,33 +9177,6 @@
       <c r="F249" s="0" t="n">
         <v>0.851</v>
       </c>
-      <c r="G249" s="0" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="H249" s="0" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="I249" s="0" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="J249" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K249" s="0" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="L249" s="0" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="M249" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="N249" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="O249" s="0" t="n">
-        <v>0.267</v>
-      </c>
       <c r="P249" s="0" t="s">
         <v>758</v>
       </c>
@@ -15899,33 +9203,6 @@
       <c r="F250" s="0" t="n">
         <v>0.97</v>
       </c>
-      <c r="G250" s="0" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="H250" s="0" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="I250" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="J250" s="0" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="K250" s="0" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="L250" s="0" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="M250" s="0" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="N250" s="0" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="O250" s="0" t="n">
-        <v>0.938</v>
-      </c>
       <c r="P250" s="0" t="s">
         <v>761</v>
       </c>
@@ -15952,33 +9229,6 @@
       <c r="F251" s="0" t="n">
         <v>0.808</v>
       </c>
-      <c r="G251" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H251" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I251" s="0" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="J251" s="0" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="K251" s="0" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="L251" s="0" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="M251" s="0" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="N251" s="0" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="O251" s="0" t="n">
-        <v>0.778</v>
-      </c>
       <c r="P251" s="0" t="s">
         <v>764</v>
       </c>
@@ -16005,33 +9255,6 @@
       <c r="F252" s="0" t="n">
         <v>0.912</v>
       </c>
-      <c r="G252" s="0" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H252" s="0" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I252" s="0" t="n">
-        <v>0.852</v>
-      </c>
-      <c r="J252" s="0" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="K252" s="0" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="L252" s="0" t="n">
-        <v>0.852</v>
-      </c>
-      <c r="M252" s="0" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="N252" s="0" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="O252" s="0" t="n">
-        <v>0.852</v>
-      </c>
       <c r="P252" s="0" t="s">
         <v>767</v>
       </c>
@@ -16058,33 +9281,6 @@
       <c r="F253" s="0" t="n">
         <v>0.984</v>
       </c>
-      <c r="G253" s="0" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="H253" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="I253" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="J253" s="0" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="K253" s="0" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="L253" s="0" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="M253" s="0" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="N253" s="0" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="O253" s="0" t="n">
-        <v>0.968</v>
-      </c>
       <c r="P253" s="0" t="s">
         <v>770</v>
       </c>
@@ -16111,33 +9307,6 @@
       <c r="F254" s="0" t="n">
         <v>0.954</v>
       </c>
-      <c r="G254" s="0" t="n">
-        <v>0.548</v>
-      </c>
-      <c r="H254" s="0" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="I254" s="0" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="J254" s="0" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K254" s="0" t="n">
-        <v>0.586</v>
-      </c>
-      <c r="L254" s="0" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="M254" s="0" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="N254" s="0" t="n">
-        <v>0.586</v>
-      </c>
-      <c r="O254" s="0" t="n">
-        <v>0.642</v>
-      </c>
       <c r="P254" s="0" t="s">
         <v>773</v>
       </c>
@@ -16164,33 +9333,6 @@
       <c r="F255" s="0" t="n">
         <v>0.873</v>
       </c>
-      <c r="G255" s="0" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="H255" s="0" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="I255" s="0" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="J255" s="0" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="K255" s="0" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="L255" s="0" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="M255" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O255" s="0" t="n">
-        <v>0.983</v>
-      </c>
       <c r="P255" s="0" t="s">
         <v>776</v>
       </c>
@@ -16217,33 +9359,6 @@
       <c r="F256" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="G256" s="0" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="H256" s="0" t="n">
-        <v>0.524</v>
-      </c>
-      <c r="I256" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="J256" s="0" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="K256" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L256" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M256" s="0" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="N256" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O256" s="0" t="n">
-        <v>0.37</v>
-      </c>
       <c r="P256" s="0" t="s">
         <v>779</v>
       </c>
@@ -16270,33 +9385,6 @@
       <c r="F257" s="0" t="n">
         <v>0.895</v>
       </c>
-      <c r="G257" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H257" s="0" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="I257" s="0" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="J257" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K257" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L257" s="0" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="M257" s="0" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="N257" s="0" t="n">
-        <v>0.766</v>
-      </c>
-      <c r="O257" s="0" t="n">
-        <v>0.895</v>
-      </c>
       <c r="P257" s="0" t="s">
         <v>782</v>
       </c>
@@ -16323,33 +9411,6 @@
       <c r="F258" s="0" t="n">
         <v>0.877</v>
       </c>
-      <c r="G258" s="0" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="H258" s="0" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="I258" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="J258" s="0" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="K258" s="0" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="L258" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="M258" s="0" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="N258" s="0" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="O258" s="0" t="n">
-        <v>0.667</v>
-      </c>
       <c r="P258" s="0" t="s">
         <v>785</v>
       </c>
@@ -16376,33 +9437,6 @@
       <c r="F259" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G259" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H259" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="I259" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J259" s="0" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="K259" s="0" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="L259" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M259" s="0" t="n">
-        <v>0.793</v>
-      </c>
-      <c r="N259" s="0" t="n">
-        <v>0.793</v>
-      </c>
-      <c r="O259" s="0" t="n">
-        <v>0.4</v>
-      </c>
       <c r="P259" s="0" t="s">
         <v>788</v>
       </c>
@@ -16429,33 +9463,6 @@
       <c r="F260" s="0" t="n">
         <v>0.419</v>
       </c>
-      <c r="G260" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="H260" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="I260" s="0" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="J260" s="0" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="K260" s="0" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="L260" s="0" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="M260" s="0" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="N260" s="0" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="O260" s="0" t="n">
-        <v>0.638</v>
-      </c>
       <c r="P260" s="0" t="s">
         <v>791</v>
       </c>
@@ -16482,33 +9489,6 @@
       <c r="F261" s="0" t="n">
         <v>0.937</v>
       </c>
-      <c r="G261" s="0" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="H261" s="0" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="I261" s="0" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="J261" s="0" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="K261" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="L261" s="0" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="M261" s="0" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="N261" s="0" t="n">
-        <v>0.692</v>
-      </c>
-      <c r="O261" s="0" t="n">
-        <v>0.528</v>
-      </c>
       <c r="P261" s="0" t="s">
         <v>794</v>
       </c>
@@ -16535,33 +9515,6 @@
       <c r="F262" s="0" t="n">
         <v>0.353</v>
       </c>
-      <c r="G262" s="0" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="H262" s="0" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="I262" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J262" s="0" t="n">
-        <v>0.693</v>
-      </c>
-      <c r="K262" s="0" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="L262" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M262" s="0" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="N262" s="0" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="O262" s="0" t="n">
-        <v>0.3</v>
-      </c>
       <c r="P262" s="0" t="s">
         <v>797</v>
       </c>
@@ -16588,33 +9541,6 @@
       <c r="F263" s="0" t="n">
         <v>0.886</v>
       </c>
-      <c r="G263" s="0" t="n">
-        <v>0.741</v>
-      </c>
-      <c r="H263" s="0" t="n">
-        <v>0.741</v>
-      </c>
-      <c r="I263" s="0" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="J263" s="0" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="K263" s="0" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="L263" s="0" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="M263" s="0" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="N263" s="0" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="O263" s="0" t="n">
-        <v>0.747</v>
-      </c>
       <c r="P263" s="0" t="s">
         <v>800</v>
       </c>
@@ -16641,33 +9567,6 @@
       <c r="F264" s="0" t="n">
         <v>0.932</v>
       </c>
-      <c r="G264" s="0" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="H264" s="0" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="I264" s="0" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="J264" s="0" t="n">
-        <v>0.901</v>
-      </c>
-      <c r="K264" s="0" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="L264" s="0" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="M264" s="0" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="N264" s="0" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="O264" s="0" t="n">
-        <v>0.894</v>
-      </c>
       <c r="P264" s="0" t="s">
         <v>803</v>
       </c>
@@ -16694,33 +9593,6 @@
       <c r="F265" s="0" t="n">
         <v>0.507</v>
       </c>
-      <c r="G265" s="0" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="H265" s="0" t="n">
-        <v>0.754</v>
-      </c>
-      <c r="I265" s="0" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="J265" s="0" t="n">
-        <v>0.854</v>
-      </c>
-      <c r="K265" s="0" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="L265" s="0" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="M265" s="0" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="N265" s="0" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="O265" s="0" t="n">
-        <v>0.776</v>
-      </c>
       <c r="P265" s="0" t="s">
         <v>806</v>
       </c>
@@ -16747,33 +9619,6 @@
       <c r="F266" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="G266" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H266" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I266" s="0" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="J266" s="0" t="n">
-        <v>0.956</v>
-      </c>
-      <c r="K266" s="0" t="n">
-        <v>0.956</v>
-      </c>
-      <c r="L266" s="0" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="M266" s="0" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="N266" s="0" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="O266" s="0" t="n">
-        <v>0.376</v>
-      </c>
       <c r="P266" s="0" t="s">
         <v>809</v>
       </c>
@@ -16800,33 +9645,6 @@
       <c r="F267" s="0" t="n">
         <v>0.838</v>
       </c>
-      <c r="G267" s="0" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="H267" s="0" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="I267" s="0" t="n">
-        <v>0.568</v>
-      </c>
-      <c r="J267" s="0" t="n">
-        <v>0.553</v>
-      </c>
-      <c r="K267" s="0" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="L267" s="0" t="n">
-        <v>0.568</v>
-      </c>
-      <c r="M267" s="0" t="n">
-        <v>0.637</v>
-      </c>
-      <c r="N267" s="0" t="n">
-        <v>0.565</v>
-      </c>
-      <c r="O267" s="0" t="n">
-        <v>0.568</v>
-      </c>
       <c r="P267" s="0" t="s">
         <v>812</v>
       </c>
@@ -16853,33 +9671,6 @@
       <c r="F268" s="0" t="n">
         <v>0.519</v>
       </c>
-      <c r="G268" s="0" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="H268" s="0" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="I268" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="J268" s="0" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="K268" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L268" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="M268" s="0" t="n">
-        <v>0.687</v>
-      </c>
-      <c r="N268" s="0" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="O268" s="0" t="n">
-        <v>0.442</v>
-      </c>
       <c r="P268" s="0" t="s">
         <v>815</v>
       </c>
@@ -16906,33 +9697,6 @@
       <c r="F269" s="0" t="n">
         <v>0.931</v>
       </c>
-      <c r="G269" s="0" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="H269" s="0" t="n">
-        <v>0.816</v>
-      </c>
-      <c r="I269" s="0" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="J269" s="0" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="K269" s="0" t="n">
-        <v>0.816</v>
-      </c>
-      <c r="L269" s="0" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="M269" s="0" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="N269" s="0" t="n">
-        <v>0.816</v>
-      </c>
-      <c r="O269" s="0" t="n">
-        <v>0.659</v>
-      </c>
       <c r="P269" s="0" t="s">
         <v>818</v>
       </c>
@@ -16959,33 +9723,6 @@
       <c r="F270" s="0" t="n">
         <v>0.825</v>
       </c>
-      <c r="G270" s="0" t="n">
-        <v>0.826</v>
-      </c>
-      <c r="H270" s="0" t="n">
-        <v>0.826</v>
-      </c>
-      <c r="I270" s="0" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="J270" s="0" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="K270" s="0" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="L270" s="0" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="M270" s="0" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="N270" s="0" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="O270" s="0" t="n">
-        <v>0.396</v>
-      </c>
       <c r="P270" s="0" t="s">
         <v>821</v>
       </c>
@@ -17012,33 +9749,6 @@
       <c r="F271" s="0" t="n">
         <v>0.265</v>
       </c>
-      <c r="G271" s="0" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="H271" s="0" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="I271" s="0" t="n">
-        <v>0.241</v>
-      </c>
-      <c r="J271" s="0" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="K271" s="0" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="L271" s="0" t="n">
-        <v>0.241</v>
-      </c>
-      <c r="M271" s="0" t="n">
-        <v>0.322</v>
-      </c>
-      <c r="N271" s="0" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="O271" s="0" t="n">
-        <v>0.241</v>
-      </c>
       <c r="P271" s="0" t="s">
         <v>824</v>
       </c>
@@ -17065,33 +9775,6 @@
       <c r="F272" s="0" t="n">
         <v>0.756</v>
       </c>
-      <c r="G272" s="0" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="H272" s="0" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="I272" s="0" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="J272" s="0" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="K272" s="0" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="L272" s="0" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="M272" s="0" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="N272" s="0" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="O272" s="0" t="n">
-        <v>0.593</v>
-      </c>
       <c r="P272" s="0" t="s">
         <v>827</v>
       </c>
@@ -17118,33 +9801,6 @@
       <c r="F273" s="0" t="n">
         <v>0.643</v>
       </c>
-      <c r="G273" s="0" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="H273" s="0" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I273" s="0" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="J273" s="0" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="K273" s="0" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="L273" s="0" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="M273" s="0" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="N273" s="0" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O273" s="0" t="n">
-        <v>0.644</v>
-      </c>
       <c r="P273" s="0" t="s">
         <v>830</v>
       </c>
@@ -17171,33 +9827,6 @@
       <c r="F274" s="0" t="n">
         <v>0.511</v>
       </c>
-      <c r="G274" s="0" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="H274" s="0" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="I274" s="0" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="J274" s="0" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="K274" s="0" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="L274" s="0" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="M274" s="0" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="N274" s="0" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="O274" s="0" t="n">
-        <v>0.448</v>
-      </c>
       <c r="P274" s="0" t="s">
         <v>833</v>
       </c>
@@ -17223,33 +9852,6 @@
       </c>
       <c r="F275" s="0" t="n">
         <v>0.389</v>
-      </c>
-      <c r="G275" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="H275" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="I275" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="J275" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="K275" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="L275" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="M275" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="N275" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="O275" s="0" t="n">
-        <v>0.357</v>
       </c>
       <c r="P275" s="0" t="s">
         <v>836</v>
